--- a/squad-qametric-testdata.xlsx
+++ b/squad-qametric-testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\doktora\3.tik\datasets\new\new\new\lastdataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\doktora\mythesis\qametrichub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D146EE85-D1B1-4D69-BC84-11BF1665D575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C04CD7-10A5-4908-8012-E03115D66AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$103</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="521">
   <si>
     <t>contexts</t>
   </si>
@@ -961,12 +961,6 @@
     <t>DVB-compliant MPEG-2</t>
   </si>
   <si>
-    <t>Closely related fields in theoretical computer science are analysis of algorithms and computability theory. A key distinction between analysis of algorithms and computational complexity theory is that the former is devoted to analyzing the amount of resources needed by a particular algorithm to solve a problem, whereas the latter asks a more general question about all possible algorithms that could be used to solve the same problem. More precisely, it tries to classify problems that can or cannot be solved with appropriately restricted resources. In turn, imposing restrictions on the available resources is what distinguishes computational complexity from computability theory: the latter theory asks what kind of problems can, in principle, be solved algorithmically.</t>
-  </si>
-  <si>
-    <t>analysis of algorithms</t>
-  </si>
-  <si>
     <t>The Normans had a profound effect on Irish culture and history after their invasion at Bannow Bay in 1169. Initially the Normans maintained a distinct culture and ethnicity. Yet, with time, they came to be subsumed into Irish culture to the point that it has been said that they became "more Irish than the Irish themselves." The Normans settled mostly in an area in the east of Ireland, later known as the Pale, and also built many fine castles and settlements, including Trim Castle and Dublin Castle. Both cultures intermixed, borrowing from each other's language, culture and outlook. Norman descendants today can be recognised by their surnames. Names such as French, (De) Roche, Devereux, D'Arcy, Treacy and Lacy are particularly common in the southeast of Ireland, especially in the southern part of County Wexford where the first Norman settlements were established. Other Norman names such as Furlong predominate there. Another common Norman-Irish name was Morell (Murrell) derived from the French Norman name Morel. Other names beginning with Fitz (from the Norman for son) indicate Norman ancestry. These included Fitzgerald, FitzGibbons (Gibbons) dynasty, Fitzmaurice. Other families bearing such surnames as Barry (de Barra) and De Búrca (Burke) are also of Norman extraction.</t>
   </si>
   <si>
@@ -1000,12 +994,6 @@
     <t>los angeles</t>
   </si>
   <si>
-    <t>What two fields of theoretical computer science closely mirror computational complexity theory?</t>
-  </si>
-  <si>
-    <t>analysis of algorithms and computability theory</t>
-  </si>
-  <si>
     <t>It was shown by Ladner that if P ≠ NP then there exist problems in NP that are neither in P nor NP-complete. Such problems are called NP-intermediate problems. The graph isomorphism problem, the discrete logarithm problem and the integer factorization problem are examples of problems believed to be NP-intermediate. They are some of the very few NP problems not known to be in P or to be NP-complete.</t>
   </si>
   <si>
@@ -1036,19 +1024,7 @@
     <t>10th century</t>
   </si>
   <si>
-    <t>Problems that can be solved in theory (e.g., given large but finite time), but which in practice take too long for their solutions to be useful, are known as intractable problems. In complexity theory, problems that lack polynomial-time solutions are considered to be intractable for more than the smallest inputs. In fact, the Cobham–Edmonds thesis states that only those problems that can be solved in polynomial time can be feasibly computed on some computational device. Problems that are known to be intractable in this sense include those that are EXPTIME-hard. If NP is not the same as P, then the NP-complete problems are also intractable in this sense. To see why exponential-time algorithms might be unusable in practice, consider a program that makes 2n operations before halting. For small n, say 100, and assuming for the sake of example that the computer does 1012 operations each second, the program would run for about 4 × 1010 years, which is the same order of magnitude as the age of the universe. Even with a much faster computer, the program would only be useful for very small instances and in that sense the intractability of a problem is somewhat independent of technological progress. Nevertheless, a polynomial time algorithm is not always practical. If its running time is, say, n15, it is unreasonable to consider it efficient and it is still useless except on small instances.</t>
-  </si>
-  <si>
     <t>P</t>
-  </si>
-  <si>
-    <t>Problems capable of theoretical solutions but consuming unreasonable time in practical application are known as what?</t>
-  </si>
-  <si>
-    <t>intractable</t>
-  </si>
-  <si>
-    <t>intractable problems</t>
   </si>
   <si>
     <t>Southern California includes the heavily built-up urban area stretching along the Pacific coast from Ventura, through the Greater Los Angeles Area and the Inland Empire, and down to Greater San Diego. Southern California's population encompasses seven metropolitan areas, or MSAs: the Los Angeles metropolitan area, consisting of Los Angeles and Orange counties; the Inland Empire, consisting of Riverside and San Bernardino counties; the San Diego metropolitan area; the Oxnard–Thousand Oaks–Ventura metropolitan area; the Santa Barbara metro area; the San Luis Obispo metropolitan area; and the El Centro area. Out of these, three are heavy populated areas: the Los Angeles area with over 12 million inhabitants, the Riverside-San Bernardino area with over four million inhabitants, and the San Diego area with over 3 million inhabitants. For CSA metropolitan purposes, the five counties of Los Angeles, Orange, Riverside, San Bernardino, and Ventura are all combined to make up the Greater Los Angeles Area with over 17.5 million people. With over 22 million people, southern California contains roughly 60 percent of California's population.</t>
@@ -1646,7 +1622,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1656,6 +1632,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,13 +1669,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2047,10 +2032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF480"/>
+  <dimension ref="A1:AF477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2073,55 +2058,55 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>4</v>
@@ -2145,7 +2130,7 @@
         <v>10</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="AF1" s="1"/>
     </row>
@@ -2163,28 +2148,28 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M2">
         <v>5</v>
@@ -2252,28 +2237,28 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F3" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G3" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="H3" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="I3" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="J3" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K3" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="L3" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="M3">
         <v>4</v>
@@ -2341,28 +2326,28 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F4" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G4" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="H4" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I4" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="J4" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="K4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="L4" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -2430,28 +2415,28 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F5" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G5" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H5" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I5" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J5" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K5" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L5" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M5">
         <v>5</v>
@@ -2519,28 +2504,28 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F6" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G6" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H6" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I6" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J6" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K6" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L6" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M6">
         <v>5</v>
@@ -2608,28 +2593,28 @@
         <v>295</v>
       </c>
       <c r="E7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -2697,28 +2682,28 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F8" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="G8" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="H8" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="I8" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="J8" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="K8" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="L8" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="M8">
         <v>2.4</v>
@@ -2786,28 +2771,28 @@
         <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F9" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G9" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H9" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I9" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="J9" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="K9" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L9" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="M9">
         <v>1.4</v>
@@ -2875,28 +2860,28 @@
         <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F10" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G10" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H10" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I10" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="J10" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="K10" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L10" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="M10">
         <v>1.4</v>
@@ -2964,28 +2949,28 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F11" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G11" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H11" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I11" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J11" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K11" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L11" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M11">
         <v>5</v>
@@ -3053,28 +3038,28 @@
         <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="F12" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="G12" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="H12" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="I12" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="J12" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="K12" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="L12" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="M12">
         <v>3</v>
@@ -3142,28 +3127,28 @@
         <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F13" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G13" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H13" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I13" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="J13" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="K13" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L13" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -3231,28 +3216,28 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F14" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G14" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H14" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I14" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J14" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K14" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L14" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M14">
         <v>5</v>
@@ -3320,28 +3305,28 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F15" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G15" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="H15" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="I15" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="J15" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="K15" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L15" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -3409,28 +3394,28 @@
         <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F16" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G16" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="H16" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I16" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="J16" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="K16" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L16" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="M16">
         <v>1.4</v>
@@ -3498,28 +3483,28 @@
         <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F17" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G17" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H17" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="I17" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="J17" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="K17" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="L17" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M17">
         <v>1.6</v>
@@ -3587,28 +3572,28 @@
         <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F18" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G18" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H18" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I18" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="J18" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="K18" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="L18" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -3676,28 +3661,28 @@
         <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F19" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G19" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="H19" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="I19" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="J19" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="K19" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="L19" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="M19">
         <v>1.8</v>
@@ -3755,7 +3740,7 @@
       <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -3765,28 +3750,28 @@
         <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F20" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G20" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="H20" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="I20" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="J20" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="K20" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="L20" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="M20">
         <v>1.6</v>
@@ -3844,7 +3829,7 @@
       <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -3854,28 +3839,28 @@
         <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F21" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G21" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H21" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="I21" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="J21" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K21" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="L21" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="M21">
         <v>1.2</v>
@@ -3933,7 +3918,7 @@
       <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -3943,28 +3928,28 @@
         <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F22" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G22" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="H22" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="I22" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="J22" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="K22" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L22" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="M22">
         <v>2</v>
@@ -4022,7 +4007,7 @@
       <c r="A23" t="s">
         <v>80</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -4032,28 +4017,28 @@
         <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F23" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G23" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H23" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="I23" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J23" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="K23" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="L23" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="M23">
         <v>2</v>
@@ -4121,28 +4106,28 @@
         <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F24" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G24" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H24" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I24" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="J24" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="K24" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L24" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="M24">
         <v>1.6</v>
@@ -4210,28 +4195,28 @@
         <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F25" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G25" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="H25" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="I25" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="J25" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="K25" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="L25" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="M25">
         <v>1.4</v>
@@ -4299,28 +4284,28 @@
         <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F26" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="G26" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H26" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I26" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="J26" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="K26" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L26" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="M26">
         <v>2.2000000000000002</v>
@@ -4388,28 +4373,28 @@
         <v>99</v>
       </c>
       <c r="E27" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F27" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G27" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H27" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I27" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="J27" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="K27" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="L27" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -4477,28 +4462,28 @@
         <v>103</v>
       </c>
       <c r="E28" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F28" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G28" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H28" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="I28" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="J28" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="K28" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L28" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="M28">
         <v>2.4</v>
@@ -4566,28 +4551,28 @@
         <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F29" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G29" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H29" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I29" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="J29" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="K29" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L29" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -4655,28 +4640,28 @@
         <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F30" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G30" t="s">
+        <v>412</v>
+      </c>
+      <c r="H30" t="s">
+        <v>418</v>
+      </c>
+      <c r="I30" t="s">
+        <v>419</v>
+      </c>
+      <c r="J30" t="s">
         <v>420</v>
       </c>
-      <c r="H30" t="s">
-        <v>426</v>
-      </c>
-      <c r="I30" t="s">
-        <v>427</v>
-      </c>
-      <c r="J30" t="s">
-        <v>428</v>
-      </c>
       <c r="K30" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="L30" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="M30">
         <v>2.4</v>
@@ -4744,28 +4729,28 @@
         <v>113</v>
       </c>
       <c r="E31" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F31" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G31" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H31" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I31" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="J31" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="K31" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="L31" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -4833,28 +4818,28 @@
         <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F32" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G32" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H32" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="I32" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J32" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="K32" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="L32" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="M32">
         <v>2</v>
@@ -4922,28 +4907,28 @@
         <v>120</v>
       </c>
       <c r="E33" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F33" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G33" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="H33" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I33" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="J33" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K33" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="L33" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="M33">
         <v>2.2000000000000002</v>
@@ -5011,28 +4996,28 @@
         <v>124</v>
       </c>
       <c r="E34" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F34" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G34" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="H34" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="I34" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="J34" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="K34" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="L34" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="M34">
         <v>2.4</v>
@@ -5100,28 +5085,28 @@
         <v>128</v>
       </c>
       <c r="E35" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F35" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G35" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="H35" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="I35" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="J35" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K35" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="L35" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="M35">
         <v>2.2000000000000002</v>
@@ -5189,28 +5174,28 @@
         <v>65</v>
       </c>
       <c r="E36" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F36" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G36" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H36" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I36" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="J36" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="K36" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="L36" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -5278,28 +5263,28 @@
         <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F37" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G37" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="H37" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="I37" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="J37" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="K37" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="L37" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M37">
         <v>2</v>
@@ -5367,28 +5352,28 @@
         <v>138</v>
       </c>
       <c r="E38" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F38" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G38" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H38" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="I38" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J38" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="K38" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="L38" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="M38">
         <v>2</v>
@@ -5456,28 +5441,28 @@
         <v>142</v>
       </c>
       <c r="E39" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F39" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G39" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H39" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I39" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="J39" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="K39" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="L39" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -5545,28 +5530,28 @@
         <v>145</v>
       </c>
       <c r="E40" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F40" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="G40" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="H40" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="I40" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="J40" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="K40" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="L40" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="M40">
         <v>3.2</v>
@@ -5634,28 +5619,28 @@
         <v>149</v>
       </c>
       <c r="E41" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F41" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G41" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H41" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="I41" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J41" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="K41" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="L41" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="M41">
         <v>2</v>
@@ -5723,28 +5708,28 @@
         <v>152</v>
       </c>
       <c r="E42" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F42" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G42" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H42" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="I42" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J42" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="K42" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="L42" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="M42">
         <v>2</v>
@@ -5812,28 +5797,28 @@
         <v>156</v>
       </c>
       <c r="E43" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F43" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G43" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H43" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="I43" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="J43" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="K43" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L43" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="M43">
         <v>2.4</v>
@@ -5891,7 +5876,7 @@
       <c r="A44" t="s">
         <v>157</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -5901,28 +5886,28 @@
         <v>160</v>
       </c>
       <c r="E44" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F44" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G44" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H44" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="I44" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="J44" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="K44" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="L44" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="M44">
         <v>2.4</v>
@@ -5990,28 +5975,28 @@
         <v>163</v>
       </c>
       <c r="E45" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F45" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G45" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="H45" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="I45" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="J45" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="K45" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="L45" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="M45">
         <v>2.2000000000000002</v>
@@ -6079,28 +6064,28 @@
         <v>299</v>
       </c>
       <c r="E46" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F46" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G46" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H46" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I46" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J46" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K46" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L46" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M46">
         <v>5</v>
@@ -6168,28 +6153,28 @@
         <v>160</v>
       </c>
       <c r="E47" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F47" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G47" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="H47" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I47" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="J47" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="K47" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L47" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="M47">
         <v>3</v>
@@ -6257,28 +6242,28 @@
         <v>163</v>
       </c>
       <c r="E48" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F48" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G48" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H48" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="I48" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="J48" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="K48" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="L48" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="M48">
         <v>2.6</v>
@@ -6346,28 +6331,28 @@
         <v>165</v>
       </c>
       <c r="E49" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F49" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G49" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H49" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I49" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="J49" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K49" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L49" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M49">
         <v>5</v>
@@ -6435,28 +6420,28 @@
         <v>171</v>
       </c>
       <c r="E50" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F50" t="s">
+        <v>433</v>
+      </c>
+      <c r="G50" t="s">
         <v>441</v>
       </c>
-      <c r="G50" t="s">
-        <v>449</v>
-      </c>
       <c r="H50" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="I50" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="J50" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="K50" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="L50" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="M50">
         <v>3</v>
@@ -6524,28 +6509,28 @@
         <v>173</v>
       </c>
       <c r="E51" t="s">
+        <v>433</v>
+      </c>
+      <c r="F51" t="s">
+        <v>442</v>
+      </c>
+      <c r="G51" t="s">
         <v>441</v>
       </c>
-      <c r="F51" t="s">
-        <v>450</v>
-      </c>
-      <c r="G51" t="s">
-        <v>449</v>
-      </c>
       <c r="H51" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="I51" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="J51" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="K51" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="L51" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="M51">
         <v>2.4</v>
@@ -6613,28 +6598,28 @@
         <v>177</v>
       </c>
       <c r="E52" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F52" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G52" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H52" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="I52" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="J52" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="K52" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="L52" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="M52">
         <v>3</v>
@@ -6702,28 +6687,28 @@
         <v>83</v>
       </c>
       <c r="E53" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F53" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G53" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="H53" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="I53" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="J53" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="K53" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="L53" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="M53">
         <v>2.8</v>
@@ -6791,28 +6776,28 @@
         <v>179</v>
       </c>
       <c r="E54" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F54" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G54" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H54" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I54" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J54" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K54" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L54" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M54">
         <v>5</v>
@@ -6880,28 +6865,28 @@
         <v>183</v>
       </c>
       <c r="E55" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F55" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G55" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="H55" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="I55" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J55" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K55" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L55" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="M55">
         <v>3.8</v>
@@ -6969,28 +6954,28 @@
         <v>186</v>
       </c>
       <c r="E56" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F56" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G56" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="H56" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="I56" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J56" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="K56" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="L56" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="M56">
         <v>2.4</v>
@@ -7058,28 +7043,28 @@
         <v>190</v>
       </c>
       <c r="E57" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F57" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G57" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="H57" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="I57" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="J57" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="K57" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="L57" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="M57">
         <v>2.8</v>
@@ -7147,28 +7132,28 @@
         <v>194</v>
       </c>
       <c r="E58" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F58" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G58" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="H58" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="I58" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="J58" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="K58" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="L58" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="M58">
         <v>3</v>
@@ -7236,28 +7221,28 @@
         <v>198</v>
       </c>
       <c r="E59" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F59" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G59" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="H59" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="I59" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="J59" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="K59" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="L59" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="M59">
         <v>3.2</v>
@@ -7325,28 +7310,28 @@
         <v>202</v>
       </c>
       <c r="E60" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F60" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G60" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H60" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I60" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="J60" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="K60" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L60" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="M60">
         <v>1.2</v>
@@ -7414,28 +7399,28 @@
         <v>205</v>
       </c>
       <c r="E61" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F61" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G61" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H61" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I61" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="J61" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="K61" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L61" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="M61">
         <v>1.2</v>
@@ -7503,28 +7488,28 @@
         <v>209</v>
       </c>
       <c r="E62" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F62" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="G62" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="H62" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I62" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="J62" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="K62" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="L62" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="M62">
         <v>1</v>
@@ -7592,28 +7577,28 @@
         <v>213</v>
       </c>
       <c r="E63" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F63" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G63" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H63" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I63" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J63" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K63" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L63" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M63">
         <v>5</v>
@@ -7681,28 +7666,28 @@
         <v>217</v>
       </c>
       <c r="E64" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F64" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G64" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H64" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I64" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J64" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K64" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L64" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M64">
         <v>5</v>
@@ -7770,28 +7755,28 @@
         <v>221</v>
       </c>
       <c r="E65" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F65" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G65" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H65" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I65" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J65" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K65" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L65" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M65">
         <v>5</v>
@@ -7859,28 +7844,28 @@
         <v>225</v>
       </c>
       <c r="E66" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F66" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G66" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H66" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I66" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J66" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K66" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L66" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M66">
         <v>5</v>
@@ -7948,28 +7933,28 @@
         <v>229</v>
       </c>
       <c r="E67" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F67" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G67" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H67" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I67" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J67" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K67" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L67" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M67">
         <v>5</v>
@@ -8037,28 +8022,28 @@
         <v>233</v>
       </c>
       <c r="E68" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F68" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G68" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H68" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I68" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J68" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K68" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L68" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M68">
         <v>5</v>
@@ -8126,28 +8111,28 @@
         <v>237</v>
       </c>
       <c r="E69" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F69" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G69" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="H69" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="I69" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="J69" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="K69" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="L69" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="M69">
         <v>4.5999999999999996</v>
@@ -8215,28 +8200,28 @@
         <v>240</v>
       </c>
       <c r="E70" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F70" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G70" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="H70" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="I70" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="J70" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="K70" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="L70" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="M70">
         <v>4.5999999999999996</v>
@@ -8304,28 +8289,28 @@
         <v>244</v>
       </c>
       <c r="E71" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F71" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G71" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H71" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I71" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J71" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K71" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L71" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M71">
         <v>5</v>
@@ -8393,28 +8378,28 @@
         <v>248</v>
       </c>
       <c r="E72" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F72" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G72" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H72" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I72" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J72" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K72" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L72" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M72">
         <v>5</v>
@@ -8482,28 +8467,28 @@
         <v>252</v>
       </c>
       <c r="E73" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F73" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G73" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H73" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I73" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J73" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K73" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L73" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M73">
         <v>5</v>
@@ -8571,28 +8556,28 @@
         <v>256</v>
       </c>
       <c r="E74" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F74" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G74" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H74" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I74" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J74" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K74" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L74" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M74">
         <v>5</v>
@@ -8660,28 +8645,28 @@
         <v>260</v>
       </c>
       <c r="E75" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F75" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G75" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H75" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I75" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J75" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K75" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L75" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M75">
         <v>5</v>
@@ -8749,28 +8734,28 @@
         <v>264</v>
       </c>
       <c r="E76" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F76" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G76" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H76" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I76" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J76" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K76" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L76" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M76">
         <v>5</v>
@@ -8838,28 +8823,28 @@
         <v>268</v>
       </c>
       <c r="E77" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F77" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G77" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H77" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I77" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J77" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K77" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L77" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M77">
         <v>5</v>
@@ -8927,28 +8912,28 @@
         <v>271</v>
       </c>
       <c r="E78" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F78" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G78" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H78" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I78" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J78" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K78" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L78" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M78">
         <v>5</v>
@@ -9016,28 +9001,28 @@
         <v>274</v>
       </c>
       <c r="E79" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F79" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G79" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H79" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I79" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J79" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K79" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L79" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M79">
         <v>5</v>
@@ -9105,28 +9090,28 @@
         <v>278</v>
       </c>
       <c r="E80" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F80" t="s">
+        <v>433</v>
+      </c>
+      <c r="G80" t="s">
         <v>441</v>
       </c>
-      <c r="G80" t="s">
-        <v>449</v>
-      </c>
       <c r="H80" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="I80" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="J80" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="K80" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="L80" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="M80">
         <v>3</v>
@@ -9194,28 +9179,28 @@
         <v>282</v>
       </c>
       <c r="E81" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F81" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G81" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H81" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I81" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J81" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K81" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L81" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M81">
         <v>5</v>
@@ -9283,28 +9268,28 @@
         <v>165</v>
       </c>
       <c r="E82" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F82" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G82" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H82" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I82" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J82" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K82" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L82" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M82">
         <v>5</v>
@@ -9372,28 +9357,28 @@
         <v>286</v>
       </c>
       <c r="E83" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F83" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G83" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="H83" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="I83" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="J83" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K83" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L83" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="M83">
         <v>3.8</v>
@@ -9461,28 +9446,28 @@
         <v>163</v>
       </c>
       <c r="E84" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F84" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G84" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="H84" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="I84" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="J84" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K84" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L84" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="M84">
         <v>3.8</v>
@@ -9550,28 +9535,28 @@
         <v>291</v>
       </c>
       <c r="E85" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="F85" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G85" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H85" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I85" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J85" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K85" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="L85" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="M85">
         <v>4.2</v>
@@ -9630,37 +9615,37 @@
         <v>309</v>
       </c>
       <c r="B86" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C86" t="s">
         <v>310</v>
       </c>
       <c r="D86" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E86" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F86" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G86" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="H86" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="I86" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="J86" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="K86" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="L86" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="M86">
         <v>3.8</v>
@@ -9716,40 +9701,40 @@
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="B87" t="s">
+        <v>323</v>
+      </c>
+      <c r="C87" t="s">
         <v>324</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>325</v>
       </c>
-      <c r="D87" t="s">
-        <v>312</v>
-      </c>
       <c r="E87" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F87" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G87" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H87" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I87" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J87" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K87" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L87" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M87">
         <v>5</v>
@@ -9785,19 +9770,19 @@
         <v>1</v>
       </c>
       <c r="X87">
-        <v>0.66666666666666663</v>
+        <v>0.8</v>
       </c>
       <c r="Y87">
-        <v>4.493053873107152E-78</v>
+        <v>5.4875404405203527E-155</v>
       </c>
       <c r="Z87">
         <v>0.66666666666666663</v>
       </c>
       <c r="AA87">
-        <v>0.5166217777976182</v>
+        <v>0.49347127360385701</v>
       </c>
       <c r="AB87">
-        <v>0.92279467704335305</v>
+        <v>0.93761446187699082</v>
       </c>
       <c r="AC87">
         <v>3</v>
@@ -9805,40 +9790,40 @@
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
+        <v>191</v>
+      </c>
+      <c r="B88" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" t="s">
         <v>326</v>
       </c>
-      <c r="B88" t="s">
-        <v>327</v>
-      </c>
-      <c r="C88" t="s">
-        <v>328</v>
-      </c>
       <c r="D88" t="s">
-        <v>329</v>
+        <v>194</v>
       </c>
       <c r="E88" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F88" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G88" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H88" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I88" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J88" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K88" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L88" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M88">
         <v>5</v>
@@ -9874,19 +9859,19 @@
         <v>1</v>
       </c>
       <c r="X88">
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Y88">
-        <v>5.4875404405203527E-155</v>
+        <v>5.6358099924748869E-232</v>
       </c>
       <c r="Z88">
         <v>0.66666666666666663</v>
       </c>
       <c r="AA88">
-        <v>0.49347127360385701</v>
+        <v>0.26318467925539041</v>
       </c>
       <c r="AB88">
-        <v>0.93761446187699082</v>
+        <v>0.90922539628853249</v>
       </c>
       <c r="AC88">
         <v>3</v>
@@ -9894,40 +9879,40 @@
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="B89" t="s">
-        <v>192</v>
+        <v>316</v>
       </c>
       <c r="C89" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D89" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="E89" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F89" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G89" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H89" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I89" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J89" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K89" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L89" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M89">
         <v>5</v>
@@ -9963,19 +9948,19 @@
         <v>1</v>
       </c>
       <c r="X89">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Y89">
-        <v>5.6358099924748869E-232</v>
+        <v>1.2882297539194149E-231</v>
       </c>
       <c r="Z89">
         <v>0.66666666666666663</v>
       </c>
       <c r="AA89">
-        <v>0.26318467925539041</v>
+        <v>0.45459171871385601</v>
       </c>
       <c r="AB89">
-        <v>0.90922539628853249</v>
+        <v>0.85764929314399552</v>
       </c>
       <c r="AC89">
         <v>3</v>
@@ -9983,40 +9968,40 @@
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="B90" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="C90" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="D90" t="s">
-        <v>170</v>
+        <v>344</v>
       </c>
       <c r="E90" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F90" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G90" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H90" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I90" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J90" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K90" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L90" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M90">
         <v>5</v>
@@ -10052,19 +10037,19 @@
         <v>1</v>
       </c>
       <c r="X90">
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="Y90">
-        <v>1.2882297539194149E-231</v>
+        <v>1.531971989119239E-231</v>
       </c>
       <c r="Z90">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="AA90">
-        <v>0.45459171871385601</v>
+        <v>0.9375</v>
       </c>
       <c r="AB90">
-        <v>0.85764929314399552</v>
+        <v>0.97182531580754994</v>
       </c>
       <c r="AC90">
         <v>3</v>
@@ -10072,40 +10057,40 @@
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="B91" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C91" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D91" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E91" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F91" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G91" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H91" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I91" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J91" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K91" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L91" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M91">
         <v>5</v>
@@ -10144,16 +10129,16 @@
         <v>1</v>
       </c>
       <c r="Y91">
-        <v>1.531971989119239E-231</v>
+        <v>0</v>
       </c>
       <c r="Z91">
         <v>1</v>
       </c>
       <c r="AA91">
-        <v>0.9375</v>
+        <v>0.5</v>
       </c>
       <c r="AB91">
-        <v>0.97182531580754994</v>
+        <v>0.88191710368819687</v>
       </c>
       <c r="AC91">
         <v>3</v>
@@ -10161,40 +10146,40 @@
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="B92" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="C92" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="D92" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="E92" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F92" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G92" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H92" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I92" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J92" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K92" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L92" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M92">
         <v>5</v>
@@ -10239,10 +10224,10 @@
         <v>1</v>
       </c>
       <c r="AA92">
-        <v>0.5</v>
+        <v>0.9375</v>
       </c>
       <c r="AB92">
-        <v>0.88191710368819687</v>
+        <v>0.89973541084243736</v>
       </c>
       <c r="AC92">
         <v>3</v>
@@ -10250,40 +10235,40 @@
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B93" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="C93" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D93" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="E93" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F93" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G93" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H93" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I93" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J93" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K93" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L93" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M93">
         <v>5</v>
@@ -10322,16 +10307,16 @@
         <v>1</v>
       </c>
       <c r="Y93">
-        <v>0</v>
+        <v>1.821831989445342E-231</v>
       </c>
       <c r="Z93">
         <v>1</v>
       </c>
       <c r="AA93">
-        <v>0.9375</v>
+        <v>0.5</v>
       </c>
       <c r="AB93">
-        <v>0.89973541084243736</v>
+        <v>1</v>
       </c>
       <c r="AC93">
         <v>3</v>
@@ -10339,40 +10324,40 @@
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>313</v>
+        <v>249</v>
       </c>
       <c r="B94" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C94" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="D94" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E94" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F94" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G94" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H94" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I94" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J94" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K94" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L94" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M94">
         <v>5</v>
@@ -10411,16 +10396,16 @@
         <v>1</v>
       </c>
       <c r="Y94">
-        <v>1.821831989445342E-231</v>
+        <v>1.384292958842266E-231</v>
       </c>
       <c r="Z94">
         <v>1</v>
       </c>
       <c r="AA94">
-        <v>0.5</v>
+        <v>0.98148148148148151</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>0.94629162326278149</v>
       </c>
       <c r="AC94">
         <v>3</v>
@@ -10428,40 +10413,40 @@
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B95" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="C95" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="D95" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="E95" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F95" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G95" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H95" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I95" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J95" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K95" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L95" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M95">
         <v>5</v>
@@ -10500,16 +10485,16 @@
         <v>1</v>
       </c>
       <c r="Y95">
-        <v>1.384292958842266E-231</v>
+        <v>0</v>
       </c>
       <c r="Z95">
         <v>1</v>
       </c>
       <c r="AA95">
-        <v>0.98148148148148151</v>
+        <v>0.5</v>
       </c>
       <c r="AB95">
-        <v>0.94629162326278149</v>
+        <v>0</v>
       </c>
       <c r="AC95">
         <v>3</v>
@@ -10517,40 +10502,40 @@
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>245</v>
+        <v>312</v>
       </c>
       <c r="B96" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="C96" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="D96" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="E96" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F96" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G96" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H96" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I96" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J96" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K96" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L96" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M96">
         <v>5</v>
@@ -10606,40 +10591,40 @@
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>314</v>
+        <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C97" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="D97" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="E97" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F97" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G97" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H97" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I97" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J97" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K97" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L97" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M97">
         <v>5</v>
@@ -10678,7 +10663,7 @@
         <v>1</v>
       </c>
       <c r="Y97">
-        <v>0</v>
+        <v>1.821831989445342E-231</v>
       </c>
       <c r="Z97">
         <v>1</v>
@@ -10687,7 +10672,7 @@
         <v>0.5</v>
       </c>
       <c r="AB97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC97">
         <v>3</v>
@@ -10695,40 +10680,40 @@
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>303</v>
       </c>
       <c r="B98" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C98" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="D98" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="E98" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F98" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G98" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H98" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I98" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J98" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K98" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L98" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M98">
         <v>5</v>
@@ -10767,7 +10752,7 @@
         <v>1</v>
       </c>
       <c r="Y98">
-        <v>1.821831989445342E-231</v>
+        <v>0</v>
       </c>
       <c r="Z98">
         <v>1</v>
@@ -10776,7 +10761,7 @@
         <v>0.5</v>
       </c>
       <c r="AB98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC98">
         <v>3</v>
@@ -10784,40 +10769,40 @@
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B99" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="C99" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="D99" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="E99" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F99" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G99" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H99" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I99" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J99" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K99" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L99" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M99">
         <v>5</v>
@@ -10853,19 +10838,19 @@
         <v>1</v>
       </c>
       <c r="X99">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Y99">
         <v>0</v>
       </c>
       <c r="Z99">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AA99">
-        <v>0.5</v>
+        <v>0.45454545454545447</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>0.79077367015854849</v>
       </c>
       <c r="AC99">
         <v>3</v>
@@ -10873,40 +10858,40 @@
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B100" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="C100" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="D100" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="E100" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F100" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G100" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H100" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I100" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J100" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K100" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L100" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M100">
         <v>5</v>
@@ -10945,16 +10930,16 @@
         <v>1</v>
       </c>
       <c r="Y100">
-        <v>1.4916681462400619E-154</v>
+        <v>1.821831989445342E-231</v>
       </c>
       <c r="Z100">
         <v>1</v>
       </c>
       <c r="AA100">
-        <v>0.9375</v>
+        <v>0.5</v>
       </c>
       <c r="AB100">
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="AC100">
         <v>3</v>
@@ -10962,40 +10947,40 @@
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B101" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="C101" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D101" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E101" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F101" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G101" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H101" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I101" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J101" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K101" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L101" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M101">
         <v>5</v>
@@ -11031,19 +11016,19 @@
         <v>1</v>
       </c>
       <c r="X101">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="Y101">
-        <v>1.531971989119239E-231</v>
+        <v>1.821831989445342E-231</v>
       </c>
       <c r="Z101">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="AA101">
-        <v>0.45454545454545447</v>
+        <v>0.5</v>
       </c>
       <c r="AB101">
-        <v>0.8672273827165129</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AC101">
         <v>3</v>
@@ -11051,40 +11036,40 @@
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B102" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="C102" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="D102" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="E102" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F102" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G102" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H102" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I102" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J102" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K102" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L102" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M102">
         <v>5</v>
@@ -11120,19 +11105,19 @@
         <v>1</v>
       </c>
       <c r="X102">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="Y102">
-        <v>0</v>
+        <v>1.821831989445342E-231</v>
       </c>
       <c r="Z102">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="AA102">
-        <v>0.45454545454545447</v>
+        <v>0.5</v>
       </c>
       <c r="AB102">
-        <v>0.79077367015854849</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="AC102">
         <v>3</v>
@@ -11140,40 +11125,40 @@
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="B103" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="C103" t="s">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="D103" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="E103" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F103" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G103" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H103" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I103" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J103" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K103" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L103" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M103">
         <v>5</v>
@@ -11212,287 +11197,116 @@
         <v>1</v>
       </c>
       <c r="Y103">
-        <v>1.821831989445342E-231</v>
+        <v>0</v>
       </c>
       <c r="Z103">
         <v>1</v>
       </c>
       <c r="AA103">
-        <v>0.5</v>
+        <v>0.9375</v>
       </c>
       <c r="AB103">
-        <v>1</v>
+        <v>0.87671400751920925</v>
       </c>
       <c r="AC103">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
-        <v>341</v>
-      </c>
-      <c r="B104" t="s">
-        <v>365</v>
-      </c>
-      <c r="C104" t="s">
-        <v>342</v>
-      </c>
-      <c r="D104" t="s">
-        <v>342</v>
-      </c>
-      <c r="E104" t="s">
-        <v>483</v>
-      </c>
-      <c r="F104" t="s">
-        <v>483</v>
-      </c>
-      <c r="G104" t="s">
-        <v>483</v>
-      </c>
-      <c r="H104" t="s">
-        <v>483</v>
-      </c>
-      <c r="I104" t="s">
-        <v>483</v>
-      </c>
-      <c r="J104" t="s">
-        <v>483</v>
-      </c>
-      <c r="K104" t="s">
-        <v>483</v>
-      </c>
-      <c r="L104" t="s">
-        <v>483</v>
-      </c>
-      <c r="M104">
-        <v>5</v>
-      </c>
-      <c r="N104">
-        <v>5</v>
-      </c>
-      <c r="O104">
-        <v>5</v>
-      </c>
-      <c r="P104">
-        <v>5</v>
-      </c>
-      <c r="Q104">
-        <v>5</v>
-      </c>
-      <c r="R104">
-        <v>5</v>
-      </c>
-      <c r="S104">
-        <v>5</v>
-      </c>
-      <c r="T104">
-        <v>5</v>
-      </c>
-      <c r="U104">
-        <v>5</v>
-      </c>
-      <c r="V104">
-        <v>1</v>
-      </c>
-      <c r="W104">
-        <v>1</v>
-      </c>
-      <c r="X104">
-        <v>1</v>
-      </c>
-      <c r="Y104">
-        <v>1.821831989445342E-231</v>
-      </c>
-      <c r="Z104">
-        <v>1</v>
-      </c>
-      <c r="AA104">
-        <v>0.5</v>
-      </c>
-      <c r="AB104">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="AC104">
-        <v>3</v>
-      </c>
+    <row r="145" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A145"/>
+      <c r="B145"/>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145"/>
+      <c r="G145"/>
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145"/>
+      <c r="P145"/>
+      <c r="Q145"/>
+      <c r="R145"/>
+      <c r="S145"/>
+      <c r="T145"/>
+      <c r="U145"/>
+      <c r="V145"/>
+      <c r="W145"/>
+      <c r="X145"/>
+      <c r="Y145"/>
+      <c r="Z145"/>
+      <c r="AA145"/>
+      <c r="AB145"/>
+      <c r="AC145"/>
+      <c r="AD145"/>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
-        <v>301</v>
-      </c>
-      <c r="B105" t="s">
-        <v>366</v>
-      </c>
-      <c r="C105" t="s">
-        <v>322</v>
-      </c>
-      <c r="D105" t="s">
-        <v>322</v>
-      </c>
-      <c r="E105" t="s">
-        <v>483</v>
-      </c>
-      <c r="F105" t="s">
-        <v>483</v>
-      </c>
-      <c r="G105" t="s">
-        <v>483</v>
-      </c>
-      <c r="H105" t="s">
-        <v>483</v>
-      </c>
-      <c r="I105" t="s">
-        <v>483</v>
-      </c>
-      <c r="J105" t="s">
-        <v>483</v>
-      </c>
-      <c r="K105" t="s">
-        <v>483</v>
-      </c>
-      <c r="L105" t="s">
-        <v>483</v>
-      </c>
-      <c r="M105">
-        <v>5</v>
-      </c>
-      <c r="N105">
-        <v>5</v>
-      </c>
-      <c r="O105">
-        <v>5</v>
-      </c>
-      <c r="P105">
-        <v>5</v>
-      </c>
-      <c r="Q105">
-        <v>5</v>
-      </c>
-      <c r="R105">
-        <v>5</v>
-      </c>
-      <c r="S105">
-        <v>5</v>
-      </c>
-      <c r="T105">
-        <v>5</v>
-      </c>
-      <c r="U105">
-        <v>5</v>
-      </c>
-      <c r="V105">
-        <v>1</v>
-      </c>
-      <c r="W105">
-        <v>1</v>
-      </c>
-      <c r="X105">
-        <v>1</v>
-      </c>
-      <c r="Y105">
-        <v>1.821831989445342E-231</v>
-      </c>
-      <c r="Z105">
-        <v>1</v>
-      </c>
-      <c r="AA105">
-        <v>0.5</v>
-      </c>
-      <c r="AB105">
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="AC105">
-        <v>3</v>
-      </c>
+    <row r="146" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A146"/>
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146"/>
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146"/>
+      <c r="Q146"/>
+      <c r="R146"/>
+      <c r="S146"/>
+      <c r="T146"/>
+      <c r="U146"/>
+      <c r="V146"/>
+      <c r="W146"/>
+      <c r="X146"/>
+      <c r="Y146"/>
+      <c r="Z146"/>
+      <c r="AA146"/>
+      <c r="AB146"/>
+      <c r="AC146"/>
+      <c r="AD146"/>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
-        <v>308</v>
-      </c>
-      <c r="B106" t="s">
-        <v>346</v>
-      </c>
-      <c r="C106" t="s">
-        <v>77</v>
-      </c>
-      <c r="D106" t="s">
-        <v>323</v>
-      </c>
-      <c r="E106" t="s">
-        <v>483</v>
-      </c>
-      <c r="F106" t="s">
-        <v>483</v>
-      </c>
-      <c r="G106" t="s">
-        <v>483</v>
-      </c>
-      <c r="H106" t="s">
-        <v>483</v>
-      </c>
-      <c r="I106" t="s">
-        <v>483</v>
-      </c>
-      <c r="J106" t="s">
-        <v>483</v>
-      </c>
-      <c r="K106" t="s">
-        <v>483</v>
-      </c>
-      <c r="L106" t="s">
-        <v>483</v>
-      </c>
-      <c r="M106">
-        <v>5</v>
-      </c>
-      <c r="N106">
-        <v>5</v>
-      </c>
-      <c r="O106">
-        <v>5</v>
-      </c>
-      <c r="P106">
-        <v>5</v>
-      </c>
-      <c r="Q106">
-        <v>5</v>
-      </c>
-      <c r="R106">
-        <v>5</v>
-      </c>
-      <c r="S106">
-        <v>5</v>
-      </c>
-      <c r="T106">
-        <v>5</v>
-      </c>
-      <c r="U106">
-        <v>5</v>
-      </c>
-      <c r="V106">
-        <v>1</v>
-      </c>
-      <c r="W106">
-        <v>1</v>
-      </c>
-      <c r="X106">
-        <v>1</v>
-      </c>
-      <c r="Y106">
-        <v>0</v>
-      </c>
-      <c r="Z106">
-        <v>1</v>
-      </c>
-      <c r="AA106">
-        <v>0.9375</v>
-      </c>
-      <c r="AB106">
-        <v>0.87671400751920925</v>
-      </c>
-      <c r="AC106">
-        <v>3</v>
-      </c>
+    <row r="147" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A147"/>
+      <c r="B147"/>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147"/>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147"/>
+      <c r="P147"/>
+      <c r="Q147"/>
+      <c r="R147"/>
+      <c r="S147"/>
+      <c r="T147"/>
+      <c r="U147"/>
+      <c r="V147"/>
+      <c r="W147"/>
+      <c r="X147"/>
+      <c r="Y147"/>
+      <c r="Z147"/>
+      <c r="AA147"/>
+      <c r="AB147"/>
+      <c r="AC147"/>
+      <c r="AD147"/>
     </row>
     <row r="148" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A148"/>
@@ -11622,120 +11436,24 @@
       <c r="AC151"/>
       <c r="AD151"/>
     </row>
-    <row r="152" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A152"/>
-      <c r="B152"/>
-      <c r="C152"/>
-      <c r="D152"/>
-      <c r="E152"/>
-      <c r="F152"/>
-      <c r="G152"/>
-      <c r="H152"/>
-      <c r="I152"/>
-      <c r="J152"/>
-      <c r="K152"/>
-      <c r="L152"/>
-      <c r="M152"/>
-      <c r="N152"/>
-      <c r="O152"/>
-      <c r="P152"/>
-      <c r="Q152"/>
-      <c r="R152"/>
-      <c r="S152"/>
-      <c r="T152"/>
-      <c r="U152"/>
-      <c r="V152"/>
-      <c r="W152"/>
-      <c r="X152"/>
-      <c r="Y152"/>
-      <c r="Z152"/>
-      <c r="AA152"/>
-      <c r="AB152"/>
-      <c r="AC152"/>
-      <c r="AD152"/>
-    </row>
-    <row r="153" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A153"/>
-      <c r="B153"/>
-      <c r="C153"/>
-      <c r="D153"/>
-      <c r="E153"/>
-      <c r="F153"/>
-      <c r="G153"/>
-      <c r="H153"/>
-      <c r="I153"/>
-      <c r="J153"/>
-      <c r="K153"/>
-      <c r="L153"/>
-      <c r="M153"/>
-      <c r="N153"/>
-      <c r="O153"/>
-      <c r="P153"/>
-      <c r="Q153"/>
-      <c r="R153"/>
-      <c r="S153"/>
-      <c r="T153"/>
-      <c r="U153"/>
-      <c r="V153"/>
-      <c r="W153"/>
-      <c r="X153"/>
-      <c r="Y153"/>
-      <c r="Z153"/>
-      <c r="AA153"/>
-      <c r="AB153"/>
-      <c r="AC153"/>
-      <c r="AD153"/>
-    </row>
-    <row r="154" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A154"/>
-      <c r="B154"/>
-      <c r="C154"/>
-      <c r="D154"/>
-      <c r="E154"/>
-      <c r="F154"/>
-      <c r="G154"/>
-      <c r="H154"/>
-      <c r="I154"/>
-      <c r="J154"/>
-      <c r="K154"/>
-      <c r="L154"/>
-      <c r="M154"/>
-      <c r="N154"/>
-      <c r="O154"/>
-      <c r="P154"/>
-      <c r="Q154"/>
-      <c r="R154"/>
-      <c r="S154"/>
-      <c r="T154"/>
-      <c r="U154"/>
-      <c r="V154"/>
-      <c r="W154"/>
-      <c r="X154"/>
-      <c r="Y154"/>
-      <c r="Z154"/>
-      <c r="AA154"/>
-      <c r="AB154"/>
-      <c r="AC154"/>
-      <c r="AD154"/>
-    </row>
-    <row r="480" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="477" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <autoFilter ref="A1:AC106" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AC103" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B86:B90">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158:B460 B1:B3 B498:B508 B905:B1048576 B71:B85 C4 C6:C7 C9:C12 C16:C18 C20:C77 B91:B146">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  <conditionalFormatting sqref="B155:B457 B1:B3 B495:B505 B902:B1048576 B71:B85 C4 C6:C7 C9:C12 C16:C18 C20:C77 B90:B143">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C86:C90">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="C155:C457 C495:C505 C902:C1048576 C1:C4 C6:C7 C9:C12 C16:C18 C20:C85 C90:C143">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C158:C460 C498:C508 C905:C1048576 C1:C4 C6:C7 C9:C12 C16:C18 C20:C85 C91:C146">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <conditionalFormatting sqref="B86:B89">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86:C89">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/squad-qametric-testdata.xlsx
+++ b/squad-qametric-testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\doktora\mythesis\qametrichub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C04CD7-10A5-4908-8012-E03115D66AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A98FC07-C062-4088-9F9C-22C042B2148E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="522">
   <si>
     <t>contexts</t>
   </si>
@@ -1543,52 +1543,55 @@
     <t>common_theme</t>
   </si>
   <si>
-    <t>meaning_nor</t>
-  </si>
-  <si>
-    <t>common_theme_nor</t>
-  </si>
-  <si>
     <t>persuasion</t>
   </si>
   <si>
-    <t>persuasion_nor</t>
-  </si>
-  <si>
-    <t>believability_nor</t>
-  </si>
-  <si>
     <t>informative</t>
   </si>
   <si>
     <t>believability</t>
   </si>
   <si>
-    <t>informative_nor</t>
-  </si>
-  <si>
     <t>objective</t>
   </si>
   <si>
-    <t>objective_nor</t>
-  </si>
-  <si>
     <t>expression</t>
   </si>
   <si>
-    <t>expression_nor</t>
-  </si>
-  <si>
     <t>emotional</t>
   </si>
   <si>
-    <t>emotional_nor</t>
-  </si>
-  <si>
     <t>score_mean</t>
   </si>
   <si>
     <t>category</t>
+  </si>
+  <si>
+    <t>meaning_mean</t>
+  </si>
+  <si>
+    <t>common_theme_mean</t>
+  </si>
+  <si>
+    <t>persuasion_mean</t>
+  </si>
+  <si>
+    <t>believability_mean</t>
+  </si>
+  <si>
+    <t>informative_mean</t>
+  </si>
+  <si>
+    <t>objective_mean</t>
+  </si>
+  <si>
+    <t>expression_mean</t>
+  </si>
+  <si>
+    <t>emotional_mean</t>
+  </si>
+  <si>
+    <t>bleu2</t>
   </si>
 </sst>
 </file>
@@ -1669,16 +1672,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2032,10 +2033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF477"/>
+  <dimension ref="A1:AD477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2044,7 +2045,7 @@
     <col min="27" max="27" width="11.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2064,49 +2065,49 @@
         <v>504</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>4</v>
@@ -2115,26 +2116,28 @@
         <v>5</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2223,7 +2226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2312,7 +2315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2401,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2490,7 +2493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2579,7 +2582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>292</v>
       </c>
@@ -2668,7 +2671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -2757,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -2846,7 +2849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -3024,7 +3027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -3113,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -3202,7 +3205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -3291,7 +3294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -3380,7 +3383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -3740,7 +3743,7 @@
       <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -3829,7 +3832,7 @@
       <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -3918,7 +3921,7 @@
       <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -4007,7 +4010,7 @@
       <c r="A23" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -5876,7 +5879,7 @@
       <c r="A44" t="s">
         <v>157</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" t="s">
         <v>158</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -11440,20 +11443,20 @@
   </sheetData>
   <autoFilter ref="A1:AC103" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B155:B457 B1:B3 B495:B505 B902:B1048576 B71:B85 C4 C6:C7 C9:C12 C16:C18 C20:C77 B90:B143">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  <conditionalFormatting sqref="B86:B89">
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  <conditionalFormatting sqref="B155:B457 B2:B3 B495:B505 B902:B1048576 B71:B85 C4 C6:C7 C9:C12 C16:C18 C20:C77 B90:B143">
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C155:C457 C495:C505 C902:C1048576 C1:C4 C6:C7 C9:C12 C16:C18 C20:C85 C90:C143">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B86:B89">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  <conditionalFormatting sqref="B2:C1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C86:C89">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C155:C457 C495:C505 C902:C1048576 C2:C4 C6:C7 C9:C12 C16:C18 C20:C85 C90:C143">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
